--- a/optimizer/algorithms/dummy_excel/customers(1).xlsx
+++ b/optimizer/algorithms/dummy_excel/customers(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willsen Yogi P\Desktop\Program Skripsi\ORwebBE\optimizer\algorithms\dummy_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FDFA7E-FACD-4DD8-81CE-276A3579AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA4321B-0AAE-4D9D-BE2F-E7E5D59DC51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
     <t>Demand</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Longitude</t>
   </si>
   <si>
-    <t>X</t>
+    <t>Latitude</t>
   </si>
 </sst>
 </file>
@@ -399,17 +399,17 @@
   <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
